--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>258165.2569719563</v>
+        <v>255760.6000729848</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>226.7144566455133</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>65.91980061893105</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>129.1267947997128</v>
+        <v>22.25317816332839</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>87.93270968653133</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>140.2348378640728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>302.9446243547915</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>101.6370431134113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>10.92172565345345</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969284</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>101.0861441031021</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>25.42854495127544</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>93.52676208877504</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>163.8651933646338</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>153.2230134806007</v>
+        <v>155.559894540049</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>11.6300598987076</v>
+        <v>9.426533627750662e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,16 +1585,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>170.8079800483189</v>
       </c>
     </row>
     <row r="14">
@@ -1616,10 +1616,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>111.1889429204736</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>177.9329820852613</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.930370072263</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>111.551214499872</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>9.146142788179874</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>153.0598676525429</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833994</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>137.0965178272092</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,13 +2959,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>253.2918698186444</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3193,16 +3193,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3427,16 +3427,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>3.006892987834567</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0.8253826161913524</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766861</v>
+        <v>40.53421095546921</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1647.321240915451</v>
+        <v>1362.351821881909</v>
       </c>
       <c r="C2" t="n">
-        <v>1278.358723975039</v>
+        <v>1362.351821881909</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>1004.086123275158</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>1004.086123275158</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>593.1002184855508</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218339</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,16 +4340,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4358,22 +4358,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U2" t="n">
-        <v>3259.02016441833</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>2927.95727707476</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W2" t="n">
-        <v>2797.526171216464</v>
+        <v>2512.556752182922</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.060412955384</v>
+        <v>2139.090993921842</v>
       </c>
       <c r="Y2" t="n">
-        <v>2033.921080979572</v>
+        <v>1748.951661946031</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
         <v>2407.411984886741</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.4482993600903</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372932</v>
@@ -4513,25 +4513,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>832.0660869429007</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>610.2994715124267</v>
       </c>
       <c r="U4" t="n">
-        <v>631.7841389438285</v>
+        <v>321.1966046380703</v>
       </c>
       <c r="V4" t="n">
-        <v>377.0996507379416</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="W4" t="n">
-        <v>377.0996507379416</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X4" t="n">
-        <v>377.0996507379416</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.4482993600903</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1274.539111149739</v>
+        <v>1878.169188758595</v>
       </c>
       <c r="C5" t="n">
-        <v>905.5765942093278</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>905.5765942093278</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>519.7883416110835</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
         <v>417.1246616985469</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2641.774278995487</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189673</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.138951213861</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,40 +4650,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="T7" t="n">
-        <v>537.2634481367795</v>
+        <v>609.2899331452395</v>
       </c>
       <c r="U7" t="n">
-        <v>248.1605812624231</v>
+        <v>320.1870662708831</v>
       </c>
       <c r="V7" t="n">
-        <v>248.1605812624231</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="W7" t="n">
-        <v>248.1605812624231</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="X7" t="n">
-        <v>248.1605812624231</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y7" t="n">
-        <v>248.1605812624231</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1215.758282883553</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>846.7957659431409</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="D8" t="n">
-        <v>488.5300673363904</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678286</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4826,28 +4826,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3049.794755798251</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3049.794755798251</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2718.73186845468</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.963213184566</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>1992.497454923486</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1602.358122947674</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
@@ -4884,10 +4884,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U10" t="n">
-        <v>766.1162851307095</v>
+        <v>541.9891837816004</v>
       </c>
       <c r="V10" t="n">
-        <v>511.4317969248226</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="W10" t="n">
-        <v>511.4317969248226</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="X10" t="n">
-        <v>511.4317969248226</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y10" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="11">
@@ -5030,28 +5030,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>414.4721287421137</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C13" t="n">
-        <v>414.4721287421137</v>
+        <v>93.81666304797282</v>
       </c>
       <c r="D13" t="n">
-        <v>414.4721287421137</v>
+        <v>93.81666304797282</v>
       </c>
       <c r="E13" t="n">
-        <v>414.4721287421137</v>
+        <v>93.81666304797282</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5224,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S13" t="n">
-        <v>1440.555541309953</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T13" t="n">
-        <v>1220.954076332894</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="U13" t="n">
-        <v>931.8788496770917</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="V13" t="n">
-        <v>931.8788496770917</v>
+        <v>494.3395271261094</v>
       </c>
       <c r="W13" t="n">
-        <v>642.461679640131</v>
+        <v>494.3395271261094</v>
       </c>
       <c r="X13" t="n">
-        <v>414.4721287421137</v>
+        <v>266.349976228092</v>
       </c>
       <c r="Y13" t="n">
-        <v>414.4721287421137</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797191</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452597</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718121</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.528408326419</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>206.1287266040059</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="C16" t="n">
-        <v>206.1287266040059</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="D16" t="n">
-        <v>206.1287266040059</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="E16" t="n">
-        <v>206.1287266040059</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F16" t="n">
-        <v>206.1287266040059</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>206.1287266040059</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>140.7528025687998</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K16" t="n">
-        <v>296.7657364131325</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L16" t="n">
-        <v>526.3143760629339</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M16" t="n">
-        <v>771.5995144936176</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N16" t="n">
-        <v>1018.909846477609</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O16" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P16" t="n">
-        <v>1386.046835377029</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q16" t="n">
-        <v>1440.555541309954</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R16" t="n">
-        <v>1440.555541309954</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S16" t="n">
-        <v>1440.555541309954</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T16" t="n">
-        <v>1220.954076332895</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="U16" t="n">
-        <v>931.8788496770931</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="V16" t="n">
-        <v>677.1943614712062</v>
+        <v>494.3395271261094</v>
       </c>
       <c r="W16" t="n">
-        <v>387.7771914342456</v>
+        <v>494.3395271261094</v>
       </c>
       <c r="X16" t="n">
-        <v>387.7771914342456</v>
+        <v>314.6092421915019</v>
       </c>
       <c r="Y16" t="n">
-        <v>387.7771914342456</v>
+        <v>93.81666304797186</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5531,34 +5531,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.291933891999</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597624</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,16 +5975,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111716</v>
@@ -5996,40 +5996,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>806.8386896933887</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782971</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038358</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797761</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2042.456618565808</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1753.381391910006</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.696903704119</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1209.279733667159</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.279733667159</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>988.4871545236284</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6224,22 +6224,22 @@
         <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452613</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718132</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>847.644273983533</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998304</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998304</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998304</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797189</v>
@@ -6403,31 +6403,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S28" t="n">
-        <v>2241.436048694068</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T28" t="n">
-        <v>2021.834583717009</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U28" t="n">
-        <v>1732.759357061207</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V28" t="n">
-        <v>1478.07486885532</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W28" t="n">
-        <v>1478.07486885532</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X28" t="n">
-        <v>1250.085317957303</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y28" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6543,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>847.644273983533</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6686,25 +6686,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6780,22 +6780,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6841,13 +6841,13 @@
         <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6947,7 +6947,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>408.925855915485</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7117,28 +7117,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7254,16 +7254,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597624</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>261.8464821474266</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>261.8464821474266</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>261.8464821474266</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>94.65038286230657</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7406,55 +7406,55 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7549,22 +7549,22 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7728,13 +7728,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>184.2072690079401</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>185.0753713399709</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22644,7 +22644,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986288</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,13 +23425,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>133.7909881242236</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23464,7 +23464,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>47.77667330377585</v>
       </c>
     </row>
     <row r="14">
@@ -23504,10 +23504,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.204026273936473e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23668,10 +23668,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>29.10576992575022</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>47.77667330377582</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016406</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>114.1584408891652</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>139.4693302300325</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24370,10 +24370,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>63.36835372228704</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>64.34558267474532</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.5498640939289</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856364</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>43.92976817443542</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>32.89260457059976</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25081,16 +25081,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>43.26526345294944</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25315,16 +25315,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>145.6085800303778</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459265</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.5498640939303</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>139.4693302300325</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194177</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1032601.571114566</v>
+        <v>1032601.571114567</v>
       </c>
     </row>
     <row r="3">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>357439.0053858111</v>
+        <v>357439.0053858116</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389277</v>
+        <v>369468.7964389275</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389277</v>
+        <v>369468.7964389275</v>
       </c>
       <c r="E2" t="n">
         <v>352455.4604185486</v>
       </c>
       <c r="F2" t="n">
-        <v>352455.4604185486</v>
+        <v>352455.4604185485</v>
       </c>
       <c r="G2" t="n">
+        <v>363215.9698605025</v>
+      </c>
+      <c r="H2" t="n">
         <v>363215.9698605028</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>363215.9698605025</v>
-      </c>
-      <c r="I2" t="n">
-        <v>363215.9698605026</v>
       </c>
       <c r="J2" t="n">
         <v>363215.9698605026</v>
@@ -26341,19 +26341,19 @@
         <v>363215.9698605028</v>
       </c>
       <c r="L2" t="n">
-        <v>363215.9698605025</v>
+        <v>363215.9698605028</v>
       </c>
       <c r="M2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="N2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="O2" t="n">
-        <v>363215.9698605025</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="P2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605026</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.469155386075727e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>6.694760941172718e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78338.50263942248</v>
+        <v>78338.50263942276</v>
       </c>
       <c r="C4" t="n">
+        <v>93596.74410405249</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405257</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93596.74410405259</v>
       </c>
       <c r="E4" t="n">
         <v>761.3882086835451</v>
       </c>
       <c r="F4" t="n">
-        <v>761.3882086835456</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="G4" t="n">
         <v>16046.58397189197</v>
@@ -26439,7 +26439,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189198</v>
       </c>
       <c r="K4" t="n">
         <v>16046.58397189197</v>
@@ -26448,13 +26448,13 @@
         <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189195</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
-        <v>16046.58397189194</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="P4" t="n">
         <v>16046.58397189197</v>
@@ -26479,7 +26479,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1157578.183542597</v>
+        <v>-1157645.015715114</v>
       </c>
       <c r="C6" t="n">
-        <v>167938.1117734818</v>
+        <v>167938.1117734815</v>
       </c>
       <c r="D6" t="n">
-        <v>167938.1117734818</v>
+        <v>167938.1117734821</v>
       </c>
       <c r="E6" t="n">
-        <v>-74840.91942139732</v>
+        <v>-74935.43795484399</v>
       </c>
       <c r="F6" t="n">
-        <v>250571.5423859572</v>
+        <v>250477.0238525113</v>
       </c>
       <c r="G6" t="n">
-        <v>246046.856064704</v>
+        <v>246012.1181392677</v>
       </c>
       <c r="H6" t="n">
-        <v>246046.8560647034</v>
+        <v>246012.118139268</v>
       </c>
       <c r="I6" t="n">
-        <v>246046.8560647035</v>
+        <v>246012.1181392675</v>
       </c>
       <c r="J6" t="n">
-        <v>28515.65366742613</v>
+        <v>28480.91574199029</v>
       </c>
       <c r="K6" t="n">
-        <v>246046.8560647037</v>
+        <v>246012.118139268</v>
       </c>
       <c r="L6" t="n">
-        <v>246046.8560647034</v>
+        <v>246012.118139268</v>
       </c>
       <c r="M6" t="n">
-        <v>160991.8281291919</v>
+        <v>160957.0902037559</v>
       </c>
       <c r="N6" t="n">
-        <v>246046.8560647036</v>
+        <v>246012.1181392678</v>
       </c>
       <c r="O6" t="n">
-        <v>246046.8560647034</v>
+        <v>246012.1181392678</v>
       </c>
       <c r="P6" t="n">
-        <v>246046.8560647037</v>
+        <v>246012.118139268</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099649</v>
@@ -26820,13 +26820,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>220.1141739177002</v>
+        <v>326.9877905540846</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27585,10 +27585,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>101.8363156449106</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>78.34981548802199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>62.32826741621602</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>305.2390026283002</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27749,7 +27749,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27822,22 +27822,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>118.4628051730671</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>226.7090983725526</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>261.1562795319079</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>40.05277677498634</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28014,13 +28014,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>132.9888247250122</v>
+        <v>130.6519436655639</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29217,7 +29217,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29272,10 +29272,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29451,7 +29451,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -29475,7 +29475,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31844,25 +31844,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>671.9287955253226</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>438.5310889592611</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963265</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214701</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>592.18749414096</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,13 +32540,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
@@ -32555,34 +32555,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>284.1014732918236</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,28 +32783,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.5996128485291</v>
@@ -33026,16 +33026,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>151.9914336104071</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
@@ -33047,7 +33047,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33263,13 +33263,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>289.7537444526271</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
@@ -33278,10 +33278,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L32" t="n">
         <v>867.8464071162563</v>
@@ -33500,13 +33500,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.267838362266</v>
+        <v>632.587927456874</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
@@ -33518,7 +33518,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33737,22 +33737,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>279.0775374915851</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.5996128485291</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33974,19 +33974,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>485.1127032082907</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214699</v>
@@ -34205,25 +34205,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>231.5286848890169</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214699</v>
@@ -34232,7 +34232,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>393.3904345522228</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>529.7947616033043</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164523</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992802</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071399</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.41024194023014</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K16" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L16" t="n">
-        <v>231.8673127775772</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M16" t="n">
-        <v>247.7627660915996</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N16" t="n">
-        <v>249.8084161454458</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O16" t="n">
-        <v>210.2202333401631</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P16" t="n">
-        <v>160.625209992584</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.05929892214698</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>453.6331143610858</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,28 +36431,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625076</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295474</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
@@ -36674,16 +36674,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>20.64972152707382</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
@@ -36695,7 +36695,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998997</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>151.9123054782681</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
@@ -36926,10 +36926,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789214</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L32" t="n">
         <v>632.079992146269</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402477</v>
+        <v>490.4538935348556</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
@@ -37166,7 +37166,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789214</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>136.4812930471406</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625076</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37622,19 +37622,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071396</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>92.97430510914269</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071396</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
